--- a/data/trans_orig/P33B4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>78695</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63707</v>
+        <v>64004</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96725</v>
+        <v>96385</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.136026143182482</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1101194333631657</v>
+        <v>0.1106325983500543</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.167190666096373</v>
+        <v>0.1666038691209324</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>295</v>
@@ -762,19 +762,19 @@
         <v>175612</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>157677</v>
+        <v>157806</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>194610</v>
+        <v>193255</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2141187198219461</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1922511063127154</v>
+        <v>0.192408439878048</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2372828264769499</v>
+        <v>0.2356309732402105</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>392</v>
@@ -783,19 +783,19 @@
         <v>254307</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>233047</v>
+        <v>229860</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>283484</v>
+        <v>279509</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1818178628311359</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1666179860153087</v>
+        <v>0.1643393060370398</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2026783384626161</v>
+        <v>0.199836678206218</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>54323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42666</v>
+        <v>42254</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>68794</v>
+        <v>67379</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09389832582984062</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07374868359778435</v>
+        <v>0.0730370382351192</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1189122154908224</v>
+        <v>0.1164659770619952</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>204</v>
@@ -833,19 +833,19 @@
         <v>115150</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>99500</v>
+        <v>100573</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>131607</v>
+        <v>130731</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1403990342357387</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1213182701261297</v>
+        <v>0.1226256865337248</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1604652164199074</v>
+        <v>0.1593970948181636</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>279</v>
@@ -854,19 +854,19 @@
         <v>169473</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>148796</v>
+        <v>151897</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>189731</v>
+        <v>190241</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1211652888936592</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1063827303211602</v>
+        <v>0.108599571236963</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1356489121278452</v>
+        <v>0.1360135822041035</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>77500</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62082</v>
+        <v>63807</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>93025</v>
+        <v>93903</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1339603161988958</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1073099124405945</v>
+        <v>0.1102910799933976</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1607958399758345</v>
+        <v>0.1623136796314743</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>336</v>
@@ -904,19 +904,19 @@
         <v>180207</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>163663</v>
+        <v>163542</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>197093</v>
+        <v>200188</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2197212032253127</v>
+        <v>0.2197212032253126</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1995502938280984</v>
+        <v>0.1994022313745188</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2403108861874633</v>
+        <v>0.2440846019149596</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>435</v>
@@ -925,19 +925,19 @@
         <v>257706</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>234538</v>
+        <v>235376</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>282002</v>
+        <v>280235</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.184248559518927</v>
+        <v>0.1842485595189271</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1676844917867604</v>
+        <v>0.1682832434360239</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2016188518928985</v>
+        <v>0.2003555844520291</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>368011</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>345001</v>
+        <v>344557</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>388442</v>
+        <v>390586</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6361152147887816</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5963423500348166</v>
+        <v>0.5955741795173625</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6714310465391464</v>
+        <v>0.6751370307531857</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>589</v>
@@ -975,19 +975,19 @@
         <v>349192</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>328376</v>
+        <v>326076</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>373597</v>
+        <v>370412</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4257610427170027</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4003804467985138</v>
+        <v>0.397576117503271</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4555174177547901</v>
+        <v>0.451633885196473</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1009</v>
@@ -996,19 +996,19 @@
         <v>717203</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>683225</v>
+        <v>684052</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>749068</v>
+        <v>746994</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5127682887562779</v>
+        <v>0.5127682887562778</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4884754975637492</v>
+        <v>0.4890665486768359</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5355504320342173</v>
+        <v>0.5340671398384206</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>138442</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>114199</v>
+        <v>117777</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>164533</v>
+        <v>164837</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06212319960853021</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05124449085841674</v>
+        <v>0.05285033192653126</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07383116856390115</v>
+        <v>0.0739675842049939</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>286</v>
@@ -1121,19 +1121,19 @@
         <v>211804</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>188006</v>
+        <v>188024</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>235563</v>
+        <v>240038</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.09754314059157229</v>
+        <v>0.09754314059157226</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08658315428753156</v>
+        <v>0.08659165342697654</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1084848511944898</v>
+        <v>0.110545638121319</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>428</v>
@@ -1142,19 +1142,19 @@
         <v>350246</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>315331</v>
+        <v>314574</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>389553</v>
+        <v>386446</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0796032816091187</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07166770430393012</v>
+        <v>0.07149580592576849</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0885368954602842</v>
+        <v>0.08783072603856375</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>130810</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>110138</v>
+        <v>107149</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>158145</v>
+        <v>157044</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05869859517605756</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04942218583345271</v>
+        <v>0.0480809116413646</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07096458152604301</v>
+        <v>0.07047042953178174</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>295</v>
@@ -1192,19 +1192,19 @@
         <v>210424</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>186026</v>
+        <v>185794</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>236355</v>
+        <v>237860</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09690725117826895</v>
+        <v>0.09690725117826894</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08567123555701563</v>
+        <v>0.08556461141189614</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1088494408511269</v>
+        <v>0.1095426454130164</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>428</v>
@@ -1213,19 +1213,19 @@
         <v>341234</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>307178</v>
+        <v>308228</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>375804</v>
+        <v>376495</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07755493489640596</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06981469597361832</v>
+        <v>0.07005348533146599</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08541198017298481</v>
+        <v>0.08556902475050897</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>360598</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>326264</v>
+        <v>327245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>400242</v>
+        <v>402634</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1618117072036114</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1464047068661639</v>
+        <v>0.146845209054601</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1796012103724053</v>
+        <v>0.1806744826522496</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>722</v>
@@ -1263,19 +1263,19 @@
         <v>452488</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>417529</v>
+        <v>420702</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>484638</v>
+        <v>482903</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2083859636607415</v>
+        <v>0.2083859636607414</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1922862162787733</v>
+        <v>0.193747492898716</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2231921697609038</v>
+        <v>0.2223930729377567</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1102</v>
@@ -1284,19 +1284,19 @@
         <v>813086</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>762720</v>
+        <v>761631</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>863772</v>
+        <v>856806</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1847965513166168</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1733494238808074</v>
+        <v>0.1731019595184383</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1963162761951269</v>
+        <v>0.1947331583596322</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>1598656</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1548430</v>
+        <v>1549046</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1644246</v>
+        <v>1644753</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7173664980118009</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6948286042653317</v>
+        <v>0.6951052351862226</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.737824270762325</v>
+        <v>0.7380520794432737</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1618</v>
@@ -1334,19 +1334,19 @@
         <v>1296676</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1252378</v>
+        <v>1254720</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1339415</v>
+        <v>1337905</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5971636445694173</v>
+        <v>0.5971636445694172</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5767628847169107</v>
+        <v>0.5778415301418141</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6168463325634441</v>
+        <v>0.6161508951344005</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2953</v>
@@ -1355,19 +1355,19 @@
         <v>2895332</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2829045</v>
+        <v>2834015</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2959463</v>
+        <v>2954642</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6580452321778585</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6429795963228558</v>
+        <v>0.6441093194613111</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6726207540487917</v>
+        <v>0.6715251075309123</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>37987</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24995</v>
+        <v>26342</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58293</v>
+        <v>57344</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05345760663291898</v>
+        <v>0.05345760663291897</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03517478291620419</v>
+        <v>0.0370701166588706</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08203309934421713</v>
+        <v>0.08069859452686785</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>74</v>
@@ -1480,19 +1480,19 @@
         <v>58037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44005</v>
+        <v>46195</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72840</v>
+        <v>71858</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07897499516465846</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05988090277793839</v>
+        <v>0.06286039420682527</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09911844606087301</v>
+        <v>0.09778168904643876</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>106</v>
@@ -1501,19 +1501,19 @@
         <v>96024</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>78624</v>
+        <v>77824</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>119419</v>
+        <v>117533</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.06643059429156721</v>
+        <v>0.06643059429156722</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0543932915093791</v>
+        <v>0.05383947696467013</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08261551896107598</v>
+        <v>0.08131088999908735</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>46735</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>32797</v>
+        <v>34206</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>62846</v>
+        <v>64178</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06576798443886626</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04615444939304348</v>
+        <v>0.04813733464816528</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08844135175540317</v>
+        <v>0.09031516102383615</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>91</v>
@@ -1551,19 +1551,19 @@
         <v>67779</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>55164</v>
+        <v>54749</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>83801</v>
+        <v>82423</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0922321290337115</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07506562499600246</v>
+        <v>0.07450094549996897</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1140343169959855</v>
+        <v>0.1121583770391683</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>130</v>
@@ -1572,19 +1572,19 @@
         <v>114514</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>95652</v>
+        <v>96010</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>137048</v>
+        <v>139236</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.07922230092578171</v>
+        <v>0.07922230092578172</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06617318931668115</v>
+        <v>0.06642072486346225</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09481177198612296</v>
+        <v>0.09632523835192608</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>148566</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>126824</v>
+        <v>128085</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>170789</v>
+        <v>171200</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2090712089894641</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.178475211529067</v>
+        <v>0.1802490378065789</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.24034487047201</v>
+        <v>0.2409229696681134</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>252</v>
@@ -1622,19 +1622,19 @@
         <v>157667</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139160</v>
+        <v>139218</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>176521</v>
+        <v>176375</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2145491876276421</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1893650133627626</v>
+        <v>0.189444085516633</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2402054962591692</v>
+        <v>0.2400064892215284</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>414</v>
@@ -1643,19 +1643,19 @@
         <v>306233</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>279966</v>
+        <v>278313</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>337785</v>
+        <v>336383</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2118562020219222</v>
+        <v>0.2118562020219223</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1936843730194345</v>
+        <v>0.192540899814828</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2336843940623701</v>
+        <v>0.2327140385683721</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>477312</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>449639</v>
+        <v>451010</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>505593</v>
+        <v>503198</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6717031999387508</v>
+        <v>0.6717031999387507</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6327607156920377</v>
+        <v>0.6346902314179508</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7115020973019344</v>
+        <v>0.7081324803480672</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>587</v>
@@ -1693,19 +1693,19 @@
         <v>451394</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>427870</v>
+        <v>429180</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>474363</v>
+        <v>477429</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6142436881739878</v>
+        <v>0.6142436881739879</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5822331756076375</v>
+        <v>0.584015666207912</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6455004791737246</v>
+        <v>0.6496722987771834</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1034</v>
@@ -1714,19 +1714,19 @@
         <v>928706</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>892138</v>
+        <v>892330</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>960240</v>
+        <v>967756</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6424909027607288</v>
+        <v>0.642490902760729</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6171931407446744</v>
+        <v>0.617325548128713</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.664306676849023</v>
+        <v>0.6695062124171112</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>255124</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>222314</v>
+        <v>225496</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>286267</v>
+        <v>285592</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.07252714029588467</v>
+        <v>0.07252714029588465</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06319990509230743</v>
+        <v>0.06410443809913489</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08138057493585257</v>
+        <v>0.08118854645495667</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>655</v>
@@ -1839,19 +1839,19 @@
         <v>445453</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>410579</v>
+        <v>416536</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>479701</v>
+        <v>484093</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1195388014664729</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1101803242907747</v>
+        <v>0.1117788744710834</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1287293578640526</v>
+        <v>0.1299080489265528</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>926</v>
@@ -1860,19 +1860,19 @@
         <v>700577</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>651102</v>
+        <v>655095</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>746695</v>
+        <v>751959</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09671047493934062</v>
+        <v>0.09671047493934064</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08988074626911792</v>
+        <v>0.09043195022204135</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1030768530474934</v>
+        <v>0.1038034206129532</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>231868</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>204061</v>
+        <v>201853</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264895</v>
+        <v>263819</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.06591582619508601</v>
+        <v>0.065915826195086</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0580109140086193</v>
+        <v>0.05738306582553739</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07530493940169078</v>
+        <v>0.07499902920365933</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>590</v>
@@ -1910,19 +1910,19 @@
         <v>393353</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>362674</v>
+        <v>362974</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>425809</v>
+        <v>427057</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1055575061599274</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09732469346128109</v>
+        <v>0.09740533989453434</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1142672896385129</v>
+        <v>0.1146021151921001</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>837</v>
@@ -1931,19 +1931,19 @@
         <v>625220</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>583741</v>
+        <v>584661</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>672281</v>
+        <v>672647</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08630795845648145</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08058193966170546</v>
+        <v>0.08070899927650932</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09280435243943148</v>
+        <v>0.09285488769018051</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>586664</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>541950</v>
+        <v>544598</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>633818</v>
+        <v>630428</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1667780323432844</v>
+        <v>0.1667780323432843</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1540665952990067</v>
+        <v>0.1548192308923562</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1801831342902429</v>
+        <v>0.1792191578117185</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1310</v>
@@ -1981,19 +1981,19 @@
         <v>790361</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>747237</v>
+        <v>747028</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>831407</v>
+        <v>830871</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2120961963237787</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2005236273387496</v>
+        <v>0.2004676585685523</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.223110869185982</v>
+        <v>0.2229671430846922</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1951</v>
@@ -2002,19 +2002,19 @@
         <v>1377026</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1320198</v>
+        <v>1318603</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1443434</v>
+        <v>1443737</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1900902127189261</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1822455104638161</v>
+        <v>0.1820253332277225</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1992574895818823</v>
+        <v>0.1992992924160403</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>2443979</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2384570</v>
+        <v>2382644</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2499496</v>
+        <v>2500263</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.694779001165745</v>
+        <v>0.6947790011657449</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6778900753073757</v>
+        <v>0.6773426949319752</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7105615006589547</v>
+        <v>0.7107796205740143</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2794</v>
@@ -2052,19 +2052,19 @@
         <v>2097262</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2038721</v>
+        <v>2039343</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2146164</v>
+        <v>2149427</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5628074960498209</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5470978817934925</v>
+        <v>0.5472646811490566</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5759304558091304</v>
+        <v>0.5768061548926687</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4996</v>
@@ -2073,19 +2073,19 @@
         <v>4541241</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4449011</v>
+        <v>4468042</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4614424</v>
+        <v>4621939</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6268913538852517</v>
+        <v>0.6268913538852519</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.614159582533185</v>
+        <v>0.6167866199845033</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6369938744892203</v>
+        <v>0.6380312603398104</v>
       </c>
     </row>
     <row r="23">
